--- a/DataBase/Datas/__tables__.xlsx
+++ b/DataBase/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59C26CE-8661-4C1A-B258-2DD558F07CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6824BD-7094-471C-8964-62C31C170A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>Affixs.TbAffix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTree.TbSkills</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,6 +624,20 @@
         <v>30</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/Datas/__tables__.xlsx
+++ b/DataBase/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6824BD-7094-471C-8964-62C31C170A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6B5E39-189F-4130-9860-C95184DF1835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -135,7 +135,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Skills.xlsx</t>
+    <t>Trees@Skills.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abilitys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abilitys@Skills.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abilitys.TbAbilitys</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +185,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -197,15 +218,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,9 +239,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -634,12 +662,30 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{46DC182F-52E1-4321-B2F0-E6CEF4AEA5F3}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{CA1240B4-712B-4FFD-9E21-1B9DB24F7455}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/DataBase/Datas/__tables__.xlsx
+++ b/DataBase/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6B5E39-189F-4130-9860-C95184DF1835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4B755E-A8ED-4ACE-961E-6CFF5305F69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>Abilitys.TbAbilitys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quests.TbQuests</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quests</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quests.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -519,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -680,6 +692,20 @@
         <v>37</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/DataBase/Datas/__tables__.xlsx
+++ b/DataBase/Datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4B755E-A8ED-4ACE-961E-6CFF5305F69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF06DC2-5ECC-4380-AB54-AD3BE7C6696D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Buffs.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>buffs.TbBuffs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -160,6 +156,22 @@
   </si>
   <si>
     <t>Quests.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buffs@Buffs.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityBuffs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityBuffs@Buffs.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityBuffs.TbAbilityBuffs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,6 +264,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -638,7 +653,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -646,64 +661,78 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -711,6 +740,8 @@
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{46DC182F-52E1-4321-B2F0-E6CEF4AEA5F3}"/>
     <hyperlink ref="E7" r:id="rId2" xr:uid="{CA1240B4-712B-4FFD-9E21-1B9DB24F7455}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{E04EC83A-659E-475D-B4CF-60D08CB3BD80}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{3D19F0CF-A006-4F95-92B4-F7168A9C3BD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataBase/Datas/__tables__.xlsx
+++ b/DataBase/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF06DC2-5ECC-4380-AB54-AD3BE7C6696D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFE808D-3D90-40CE-B4D7-7952C879AD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -172,6 +172,30 @@
   </si>
   <si>
     <t>AbilityBuffs.TbAbilityBuffs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemys.TbEnemys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemys.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dungeons.TbDungeons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dungeons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dungeons.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -735,6 +759,34 @@
         <v>43</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/DataBase/Datas/__tables__.xlsx
+++ b/DataBase/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFE808D-3D90-40CE-B4D7-7952C879AD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6463D9F1-B640-4AA5-B26E-B0E3AB8EEF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>Dungeons.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods.TbGoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -570,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -787,6 +799,20 @@
         <v>50</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/DataBase/Datas/__tables__.xlsx
+++ b/DataBase/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6463D9F1-B640-4AA5-B26E-B0E3AB8EEF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1254B7ED-EEAC-4C7B-A557-3745B1EBA54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Equipment.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Affixs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -208,6 +204,22 @@
   </si>
   <si>
     <t>Goods.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainBuffs.TbMainBuffs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainBuffs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainBuffs@Equipment.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Affix@Equipment.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -698,119 +710,133 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
+      <c r="E5" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -820,6 +846,8 @@
     <hyperlink ref="E7" r:id="rId2" xr:uid="{CA1240B4-712B-4FFD-9E21-1B9DB24F7455}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{E04EC83A-659E-475D-B4CF-60D08CB3BD80}"/>
     <hyperlink ref="E9" r:id="rId4" xr:uid="{3D19F0CF-A006-4F95-92B4-F7168A9C3BD6}"/>
+    <hyperlink ref="E13" r:id="rId5" xr:uid="{802820D0-DCA0-4A2F-B98B-0E2996DD5A79}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{5FA1A429-863B-4B2D-92B2-98643E663F39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataBase/Datas/__tables__.xlsx
+++ b/DataBase/Datas/__tables__.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1254B7ED-EEAC-4C7B-A557-3745B1EBA54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3796C52-361D-4530-A29C-763083B411D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>Affix@Equipment.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentBuffs.TbTalentBuffs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentBuffs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentBuffs@Buffs.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +327,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -839,6 +854,20 @@
         <v>55</v>
       </c>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -848,6 +877,7 @@
     <hyperlink ref="E9" r:id="rId4" xr:uid="{3D19F0CF-A006-4F95-92B4-F7168A9C3BD6}"/>
     <hyperlink ref="E13" r:id="rId5" xr:uid="{802820D0-DCA0-4A2F-B98B-0E2996DD5A79}"/>
     <hyperlink ref="E5" r:id="rId6" xr:uid="{5FA1A429-863B-4B2D-92B2-98643E663F39}"/>
+    <hyperlink ref="E14" r:id="rId7" xr:uid="{95B7D493-2F33-4FB3-A191-C3B2E4A2ED4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataBase/Datas/__tables__.xlsx
+++ b/DataBase/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3796C52-361D-4530-A29C-763083B411D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E305B7B1-DB6C-4A97-8A31-AAD3BDA6E2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>TalentBuffs@Buffs.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldNames</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldNames.TbGoldNames</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldNames@Equipment.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -609,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -868,6 +880,20 @@
         <v>59</v>
       </c>
     </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -878,6 +904,7 @@
     <hyperlink ref="E13" r:id="rId5" xr:uid="{802820D0-DCA0-4A2F-B98B-0E2996DD5A79}"/>
     <hyperlink ref="E5" r:id="rId6" xr:uid="{5FA1A429-863B-4B2D-92B2-98643E663F39}"/>
     <hyperlink ref="E14" r:id="rId7" xr:uid="{95B7D493-2F33-4FB3-A191-C3B2E4A2ED4B}"/>
+    <hyperlink ref="E15" r:id="rId8" xr:uid="{6951B069-5957-4164-AF26-D749B6604D08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataBase/Datas/__tables__.xlsx
+++ b/DataBase/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E305B7B1-DB6C-4A97-8A31-AAD3BDA6E2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8829DE-9990-49A5-A1CE-A9AA9F2C177E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -244,6 +244,30 @@
   </si>
   <si>
     <t>GoldNames@Equipment.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldBuffs.TbGoldBuffs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldBuffs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldBuffs@Buffs.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldAffixs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldAffixs.TbGoldAffixs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldAffixs@Equipment.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -621,15 +645,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="32.375" customWidth="1"/>
     <col min="5" max="5" width="24.375" customWidth="1"/>
@@ -892,6 +916,34 @@
       </c>
       <c r="E15" s="5" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -905,6 +957,8 @@
     <hyperlink ref="E5" r:id="rId6" xr:uid="{5FA1A429-863B-4B2D-92B2-98643E663F39}"/>
     <hyperlink ref="E14" r:id="rId7" xr:uid="{95B7D493-2F33-4FB3-A191-C3B2E4A2ED4B}"/>
     <hyperlink ref="E15" r:id="rId8" xr:uid="{6951B069-5957-4164-AF26-D749B6604D08}"/>
+    <hyperlink ref="E16" r:id="rId9" xr:uid="{81D0A6F9-4ECA-4A2D-AD58-B0C65B254720}"/>
+    <hyperlink ref="E17" r:id="rId10" xr:uid="{12512F0D-ACE1-4EE4-9036-25727134A8F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataBase/Datas/__tables__.xlsx
+++ b/DataBase/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8829DE-9990-49A5-A1CE-A9AA9F2C177E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E1D73-12A4-4E97-9388-599AC4B83370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Enemys.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Dungeons.TbDungeons</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -268,6 +264,22 @@
   </si>
   <si>
     <t>GoldAffixs@Equipment.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy@Enemys.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DungeonEnemy.TbDungeonEnemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DungeonEnemy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DungeonEnemys@Enemys.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -645,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -775,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -844,106 +856,120 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>46</v>
+      <c r="E10" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>68</v>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -959,6 +985,8 @@
     <hyperlink ref="E15" r:id="rId8" xr:uid="{6951B069-5957-4164-AF26-D749B6604D08}"/>
     <hyperlink ref="E16" r:id="rId9" xr:uid="{81D0A6F9-4ECA-4A2D-AD58-B0C65B254720}"/>
     <hyperlink ref="E17" r:id="rId10" xr:uid="{12512F0D-ACE1-4EE4-9036-25727134A8F0}"/>
+    <hyperlink ref="E10" r:id="rId11" xr:uid="{4C6099BA-A013-4852-A4AB-EC119B27ECCD}"/>
+    <hyperlink ref="E18" r:id="rId12" xr:uid="{288C89BC-ACC9-4663-AE07-A5F26C670816}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataBase/Datas/__tables__.xlsx
+++ b/DataBase/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E1D73-12A4-4E97-9388-599AC4B83370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A4FD87-EBB6-450D-9CF1-12300B71A8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -280,6 +280,18 @@
   </si>
   <si>
     <t>DungeonEnemys@Enemys.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friends.TbFriends</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friends</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friends.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -657,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -970,6 +982,20 @@
       </c>
       <c r="E18" s="4" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Datas/__tables__.xlsx
+++ b/DataBase/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A4FD87-EBB6-450D-9CF1-12300B71A8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912D787A-9DCD-4634-8CAA-CF8B80A1D92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>Friends.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gachas.TbGachas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gachas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gachas.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -669,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -996,6 +1008,20 @@
       </c>
       <c r="E19" s="2" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
